--- a/data/coordenates.xlsx
+++ b/data/coordenates.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00082043\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanfatri/Documents/Kschool/00_TFM/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F28609CA-10F1-E244-A3B6-D53FCD5A45FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="11780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>longitud</t>
   </si>
@@ -125,13 +132,85 @@
     <t xml:space="preserve">  4°31'57.93"O</t>
   </si>
   <si>
-    <t>PARQUE EÓLICO DE VALDEPERO</t>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Longitud DD</t>
+  </si>
+  <si>
+    <t>Latitud DD</t>
+  </si>
+  <si>
+    <t>Long D</t>
+  </si>
+  <si>
+    <t>Long M</t>
+  </si>
+  <si>
+    <t>Long S</t>
+  </si>
+  <si>
+    <t>Lat D</t>
+  </si>
+  <si>
+    <t>Lat M</t>
+  </si>
+  <si>
+    <t>Lat S</t>
+  </si>
+  <si>
+    <t>WindTurbine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -140,7 +219,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,14 +238,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -189,11 +262,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -201,8 +283,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,208 +568,775 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2">
+        <v>59.57</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F16" si="0">-C2-D2/60-E2/3600</f>
+        <v>-4.5332138888888887</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>42</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>47.54</v>
+      </c>
+      <c r="K2">
+        <f>+H2+I2/60+J2/3600</f>
+        <v>42.04653888888889</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N16" si="1">_xlfn.CONCAT(L2,M2)</f>
+        <v>Val01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7.47</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.5354083333333328</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>54.14</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K16" si="2">H3+I3/60+J3/3600</f>
+        <v>42.04837222222222</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="1"/>
+        <v>Val02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15.39</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.537608333333333</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>57.6</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>42.04933333333333</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="1"/>
+        <v>Val03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2">
+        <v>22.82</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.5396722222222223</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>59.15</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>42.04976388888889</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
+        <v>Val04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2">
+        <v>29.83</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.5416194444444447</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>42</v>
+      </c>
+      <c r="I6">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="J6">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>42.051324999999999</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
+        <v>Val05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2">
+        <v>29.13</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.5414250000000003</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>42</v>
+      </c>
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="J7">
+        <v>10.29</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>42.052858333333333</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v>Val06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.5272166666666669</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>42</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>15.93</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>42.054424999999995</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
+        <v>Val07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43.38</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.5287166666666669</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>23.32</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>42.056477777777772</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="1"/>
+        <v>Val08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2">
+        <v>50.69</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.5307472222222218</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>32.56</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>42.059044444444439</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
+        <v>Val09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.05</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.5350138888888889</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>42</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>1.27</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>42.067019444444448</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="1"/>
+        <v>Val10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.5361027777777778</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>42</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>5.34</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>42.068150000000003</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="1"/>
+        <v>Val11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2">
+        <v>18.52</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.521811111111111</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>42</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>15.2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>42.070888888888895</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="1"/>
+        <v>Val12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2">
+        <v>24.31</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.5234194444444444</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>20.96</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>42.072488888888891</v>
+      </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="1"/>
+        <v>Val13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2">
+        <v>50.52</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.5306999999999995</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15">
+        <v>42</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>21.48</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>42.072633333333336</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="1"/>
+        <v>Val14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
         <v>31</v>
       </c>
+      <c r="E16" s="2">
+        <v>57.93</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.5327583333333337</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16">
+        <v>42</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>25.7</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>42.073805555555559</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="1"/>
+        <v>Val15</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>